--- a/src/test/resources/TestData/Vicks/vicksURLs.xlsx
+++ b/src/test/resources/TestData/Vicks/vicksURLs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_hpolsani\Desktop\Automation code\HoT-digital\src\test\resources\TestData\Vicks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cent_avayugundla\Documents\BVT\HoT-digital\src\test\resources\TestData\Vicks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6301B520-1076-4131-94CC-7DDADC1629EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389509B-4A94-4C32-A401-6989745609FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1860" windowWidth="17145" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3255" windowWidth="17280" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>DataSet</t>
   </si>
@@ -298,9 +298,6 @@
     <t>FILTERS &amp; ACCESSORIES</t>
   </si>
   <si>
-    <t>Essential Items for Your Sick Child</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -331,7 +328,43 @@
     <t>FAQs,Product Support</t>
   </si>
   <si>
-    <t>Vicks Support and FAQ's</t>
+    <t>Humidifiers &amp; Vaporizers - Shop</t>
+  </si>
+  <si>
+    <t>SkinBenefitsofUsingaHumidifier</t>
+  </si>
+  <si>
+    <t>Skin Benefits of Using a Humidifier</t>
+  </si>
+  <si>
+    <t>Essential Items For Your Sick Child</t>
+  </si>
+  <si>
+    <t>Vicks Support and FAQs</t>
+  </si>
+  <si>
+    <t>Warranty Registration</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Online Ordering FAQs</t>
+  </si>
+  <si>
+    <t>Online Ordering FAQs - Vicks Humidifiers</t>
+  </si>
+  <si>
+    <t>Shipping and Returns</t>
+  </si>
+  <si>
+    <t>Shipping and Returns FAQs - Vicks Humidifiers</t>
+  </si>
+  <si>
+    <t>ordersupport</t>
+  </si>
+  <si>
+    <t>ProductFAQs</t>
   </si>
 </sst>
 </file>
@@ -766,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="BA3" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,19 +840,25 @@
     <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +929,7 @@
         <v>46</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="8" t="s">
         <v>66</v>
@@ -938,40 +977,58 @@
         <v>74</v>
       </c>
       <c r="AN1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="AX1" s="13" t="s">
         <v>99</v>
       </c>
+      <c r="AY1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1018,11 +1075,11 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="AQ2" t="s">
-        <v>93</v>
+      <c r="AR2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1123,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1083,7 +1140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -1127,7 +1184,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>71</v>
       </c>
@@ -1144,69 +1201,90 @@
         <v>75</v>
       </c>
       <c r="AN7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR7" t="s">
         <v>92</v>
       </c>
-      <c r="AO7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>85</v>
-      </c>
       <c r="AR8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS8" t="s">
         <v>86</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU8" t="s">
         <v>95</v>
       </c>
-      <c r="AT8" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AU9" t="s">
-        <v>103</v>
-      </c>
       <c r="AV9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AW9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="AY10" t="s">
         <v>97</v>
       </c>
-      <c r="X10" s="10"/>
-      <c r="AX10" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="U11" s="4"/>
-      <c r="X11" s="10"/>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X12" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
